--- a/Textbooks, projects/Applied Math/labs/lab_6/var_21/Петржиковский_22ст2м_лаб_6_вар_21.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_21/Петржиковский_22ст2м_лаб_6_вар_21.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE16946-F5A1-454B-B6CD-BDFC2FFECE7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111594D0-0E51-4C87-A3A2-3E8D7902A9BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5102,7 +5102,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
